--- a/data/trans_orig/P1407-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1407-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>4128</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1017</v>
+        <v>1075</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10195</v>
+        <v>10340</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003954117372171933</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0009743015368825135</v>
+        <v>0.001029837125936174</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009766125609909682</v>
+        <v>0.009904387771613659</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -763,19 +763,19 @@
         <v>30698</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20174</v>
+        <v>20404</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44188</v>
+        <v>44687</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02747058730898714</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01805305570617867</v>
+        <v>0.01825938630315892</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03954273392303124</v>
+        <v>0.03998970037578758</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -784,19 +784,19 @@
         <v>34825</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23732</v>
+        <v>23350</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48615</v>
+        <v>49239</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01611239133161848</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01097969922727837</v>
+        <v>0.01080311579185058</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02249230498587882</v>
+        <v>0.02278083638336721</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>1039807</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1033740</v>
+        <v>1033595</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1042918</v>
+        <v>1042860</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9960458826278281</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9902338743900903</v>
+        <v>0.9900956122283863</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9990256984631175</v>
+        <v>0.9989701628740638</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1001</v>
@@ -834,19 +834,19 @@
         <v>1086772</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1073282</v>
+        <v>1072783</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1097296</v>
+        <v>1097066</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9725294126910129</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9604572660769689</v>
+        <v>0.9600102996242124</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9819469442938213</v>
+        <v>0.9817406136968412</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1975</v>
@@ -855,19 +855,19 @@
         <v>2126580</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2112790</v>
+        <v>2112166</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2137673</v>
+        <v>2138055</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9838876086683815</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9775076950141215</v>
+        <v>0.9772191636166332</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9890203007727216</v>
+        <v>0.9891968842081494</v>
       </c>
     </row>
     <row r="6">
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6128</v>
+        <v>5660</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001196285365518718</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.006272194625844985</v>
+        <v>0.005793089817558198</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -980,19 +980,19 @@
         <v>16226</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9971</v>
+        <v>9004</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27514</v>
+        <v>26316</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01485413678157451</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009128098185762113</v>
+        <v>0.008243166384941407</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02518855720582266</v>
+        <v>0.02409206562092217</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -1001,19 +1001,19 @@
         <v>17394</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10460</v>
+        <v>10101</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28570</v>
+        <v>28652</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008405544484087889</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005054483466152044</v>
+        <v>0.004880999095384432</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01380569431399056</v>
+        <v>0.01384552800176577</v>
       </c>
     </row>
     <row r="8">
@@ -1030,7 +1030,7 @@
         <v>975904</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>970945</v>
+        <v>971413</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>977073</v>
@@ -1039,7 +1039,7 @@
         <v>0.9988037146344813</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9937278053741546</v>
+        <v>0.9942069101824412</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1051,19 +1051,19 @@
         <v>1076101</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1064813</v>
+        <v>1066011</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1082356</v>
+        <v>1083323</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9851458632184255</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9748114427941775</v>
+        <v>0.9759079343790776</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9908719018142379</v>
+        <v>0.9917568336150585</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1927</v>
@@ -1072,19 +1072,19 @@
         <v>2052006</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2040830</v>
+        <v>2040748</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2058940</v>
+        <v>2059299</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9915944555159121</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9861943056860094</v>
+        <v>0.9861544719982348</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.994945516533848</v>
+        <v>0.9951190009046157</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>3946</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8989</v>
+        <v>8941</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004457642532392146</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0011137164615938</v>
+        <v>0.001115374870855925</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01015582325289279</v>
+        <v>0.01010155092393786</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1197,19 +1197,19 @@
         <v>13210</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7782</v>
+        <v>7114</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22237</v>
+        <v>22564</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01508381966950708</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008885292239591443</v>
+        <v>0.008122908247731835</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0253908434974495</v>
+        <v>0.02576345993918398</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1218,19 +1218,19 @@
         <v>17156</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10192</v>
+        <v>10017</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26640</v>
+        <v>26437</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009742612469159312</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005787635203898328</v>
+        <v>0.005688526817386482</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01512862634039784</v>
+        <v>0.01501312314777259</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>881169</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>876126</v>
+        <v>876174</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>884129</v>
+        <v>884128</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9955423574676079</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9898441767471072</v>
+        <v>0.9898984490760622</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9988862835384061</v>
+        <v>0.9988846251291441</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>808</v>
@@ -1268,19 +1268,19 @@
         <v>862586</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>853559</v>
+        <v>853232</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>868014</v>
+        <v>868682</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9849161803304929</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9746091565025502</v>
+        <v>0.9742365400608158</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9911147077604073</v>
+        <v>0.991877091752268</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1634</v>
@@ -1289,19 +1289,19 @@
         <v>1743755</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1734271</v>
+        <v>1734474</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1750719</v>
+        <v>1750894</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9902573875308407</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9848713736596019</v>
+        <v>0.984986876852227</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9942123647961014</v>
+        <v>0.9943114731826134</v>
       </c>
     </row>
     <row r="12">
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6390</v>
+        <v>5318</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002088585837602851</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01270375904770726</v>
+        <v>0.01057173617953326</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1414,19 +1414,19 @@
         <v>10491</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5094</v>
+        <v>5325</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19752</v>
+        <v>21469</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02317263619864085</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0112523143294978</v>
+        <v>0.0117618706844306</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04362697768128967</v>
+        <v>0.04742057261545071</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -1435,19 +1435,19 @@
         <v>11542</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6152</v>
+        <v>6256</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22224</v>
+        <v>20942</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01207594393102389</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006437112168521803</v>
+        <v>0.006545318509592556</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02325286099851798</v>
+        <v>0.02191174632594376</v>
       </c>
     </row>
     <row r="14">
@@ -1464,7 +1464,7 @@
         <v>501972</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>496633</v>
+        <v>497705</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>503023</v>
@@ -1473,7 +1473,7 @@
         <v>0.9979114141623971</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9872962409522947</v>
+        <v>0.9894282638204668</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1485,19 +1485,19 @@
         <v>442245</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>432984</v>
+        <v>431267</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>447642</v>
+        <v>447411</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9768273638013591</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9563730223187102</v>
+        <v>0.952579427384549</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9887476856705021</v>
+        <v>0.9882381293155694</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>863</v>
@@ -1506,19 +1506,19 @@
         <v>944216</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>933534</v>
+        <v>934816</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>949606</v>
+        <v>949502</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9879240560689762</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9767471390014819</v>
+        <v>0.9780882536740562</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9935628878314782</v>
+        <v>0.9934546814904074</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>10293</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5199</v>
+        <v>5146</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19612</v>
+        <v>17751</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003019182240661052</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001524877566071171</v>
+        <v>0.00150943412282039</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.005752680086453746</v>
+        <v>0.005206879543599809</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>65</v>
@@ -1631,19 +1631,19 @@
         <v>70625</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55237</v>
+        <v>54108</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>88570</v>
+        <v>89079</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01995986447487588</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01561106615858499</v>
+        <v>0.01529189752885857</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02503170076170044</v>
+        <v>0.02517557905989516</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>75</v>
@@ -1652,19 +1652,19 @@
         <v>80917</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62732</v>
+        <v>64930</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>100160</v>
+        <v>103455</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01164702306183904</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00902944632020366</v>
+        <v>0.009345875432696315</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01441680697325278</v>
+        <v>0.01489097308040455</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3398852</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3389533</v>
+        <v>3391394</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3403946</v>
+        <v>3403999</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.996980817759339</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.994247319913546</v>
+        <v>0.9947931204563988</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9984751224339288</v>
+        <v>0.9984905658771795</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3216</v>
@@ -1702,19 +1702,19 @@
         <v>3467703</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3449758</v>
+        <v>3449249</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3483091</v>
+        <v>3484220</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9800401355251241</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9749682992382989</v>
+        <v>0.9748244209401046</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.984388933841415</v>
+        <v>0.9847081024711414</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6399</v>
@@ -1723,19 +1723,19 @@
         <v>6866557</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6847314</v>
+        <v>6844019</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6884742</v>
+        <v>6882544</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9883529769381609</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9855831930267472</v>
+        <v>0.9851090269195953</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9909705536797967</v>
+        <v>0.9906541245673033</v>
       </c>
     </row>
     <row r="18">
@@ -2080,19 +2080,19 @@
         <v>26008</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16774</v>
+        <v>16426</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37253</v>
+        <v>38779</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02064872404643263</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01331751715020635</v>
+        <v>0.01304105713814277</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02957590178233772</v>
+        <v>0.03078768334488521</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -2101,19 +2101,19 @@
         <v>26008</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16611</v>
+        <v>17368</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38355</v>
+        <v>38945</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01089327369511657</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006957500027779807</v>
+        <v>0.007274239200979532</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0160644344835434</v>
+        <v>0.01631158436943533</v>
       </c>
     </row>
     <row r="5">
@@ -2143,19 +2143,19 @@
         <v>1233553</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1222308</v>
+        <v>1220782</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1242787</v>
+        <v>1243135</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9793512759535674</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9704240982176622</v>
+        <v>0.9692123166551143</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9866824828497935</v>
+        <v>0.986958942861857</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2231</v>
@@ -2164,19 +2164,19 @@
         <v>2361550</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2349203</v>
+        <v>2348613</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2370947</v>
+        <v>2370190</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9891067263048834</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9839355655164567</v>
+        <v>0.983688415630565</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9930424999722203</v>
+        <v>0.9927257607990205</v>
       </c>
     </row>
     <row r="6">
@@ -2268,19 +2268,19 @@
         <v>4473</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1636</v>
+        <v>1660</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9879</v>
+        <v>10121</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004922191470669295</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001800039392660194</v>
+        <v>0.001826751600499805</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01086993698536614</v>
+        <v>0.01113627710830389</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -2289,19 +2289,19 @@
         <v>14961</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8310</v>
+        <v>8282</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24344</v>
+        <v>24744</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01486433032372802</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008256846804830879</v>
+        <v>0.008228894060519285</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02418694394576795</v>
+        <v>0.02458504650428884</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -2310,19 +2310,19 @@
         <v>19434</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12074</v>
+        <v>12525</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30954</v>
+        <v>29395</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0101467081295683</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006303809470925558</v>
+        <v>0.006539184814539047</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01616165481663232</v>
+        <v>0.01534722712518147</v>
       </c>
     </row>
     <row r="8">
@@ -2339,19 +2339,19 @@
         <v>904352</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>898946</v>
+        <v>898704</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>907189</v>
+        <v>907165</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9950778085293307</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9891300630146338</v>
+        <v>0.988863722891696</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9981999606073397</v>
+        <v>0.9981732483995003</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>938</v>
@@ -2360,19 +2360,19 @@
         <v>991514</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>982131</v>
+        <v>981731</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>998165</v>
+        <v>998193</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.985135669676272</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9758130560542321</v>
+        <v>0.9754149534957113</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9917431531951691</v>
+        <v>0.9917711059394807</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1814</v>
@@ -2381,19 +2381,19 @@
         <v>1895866</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1884346</v>
+        <v>1885905</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1903226</v>
+        <v>1902775</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9898532918704317</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9838383451833675</v>
+        <v>0.9846527728748186</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9936961905290743</v>
+        <v>0.9934608151854609</v>
       </c>
     </row>
     <row r="9">
@@ -2485,19 +2485,19 @@
         <v>9196</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4319</v>
+        <v>4603</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17361</v>
+        <v>17677</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01116353215048524</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005242776076447567</v>
+        <v>0.005587767705116765</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02107549838139197</v>
+        <v>0.0214588497174118</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -2506,19 +2506,19 @@
         <v>7119</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2932</v>
+        <v>2868</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15349</v>
+        <v>15495</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009232199376577781</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003802251259780477</v>
+        <v>0.00372009990959876</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01990578394478187</v>
+        <v>0.02009586180917009</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -2527,19 +2527,19 @@
         <v>16315</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9166</v>
+        <v>10175</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26886</v>
+        <v>27774</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01022977611015077</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005747287772910738</v>
+        <v>0.006380058733894476</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01685860767116881</v>
+        <v>0.01741531762236687</v>
       </c>
     </row>
     <row r="11">
@@ -2556,19 +2556,19 @@
         <v>814563</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>806398</v>
+        <v>806082</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>819440</v>
+        <v>819156</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9888364678495147</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9789245016186081</v>
+        <v>0.9785411502825887</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9947572239235525</v>
+        <v>0.9944122322948833</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>722</v>
@@ -2577,19 +2577,19 @@
         <v>763940</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>755710</v>
+        <v>755564</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>768127</v>
+        <v>768191</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9907678006234222</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9800942160552183</v>
+        <v>0.9799041381908298</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9961977487402198</v>
+        <v>0.9962799000904011</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1500</v>
@@ -2598,19 +2598,19 @@
         <v>1578503</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1567932</v>
+        <v>1567044</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1585652</v>
+        <v>1584643</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9897702238898493</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9831413923288316</v>
+        <v>0.9825846823776331</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9942527122270894</v>
+        <v>0.9936199412661055</v>
       </c>
     </row>
     <row r="12">
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6026</v>
+        <v>6888</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003664961904935018</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01189335316798846</v>
+        <v>0.01359397079926183</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -2723,19 +2723,19 @@
         <v>11043</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5455</v>
+        <v>5424</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21637</v>
+        <v>20119</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02255154929088208</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01113898020284983</v>
+        <v>0.01107702446074246</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04418347695379635</v>
+        <v>0.04108500957741084</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -2744,19 +2744,19 @@
         <v>12900</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7100</v>
+        <v>6619</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24232</v>
+        <v>22938</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01294710759365894</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007125982671355831</v>
+        <v>0.00664303250084561</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02431939265319192</v>
+        <v>0.02302086488015515</v>
       </c>
     </row>
     <row r="14">
@@ -2773,7 +2773,7 @@
         <v>504844</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>500675</v>
+        <v>499813</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>506701</v>
@@ -2782,7 +2782,7 @@
         <v>0.996335038095065</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9881066468320113</v>
+        <v>0.9864060292007382</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -2794,19 +2794,19 @@
         <v>478655</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>468061</v>
+        <v>469579</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>484243</v>
+        <v>484274</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9774484507091179</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9558165230462036</v>
+        <v>0.958914990422589</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9888610197971501</v>
+        <v>0.9889229755392575</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>915</v>
@@ -2815,19 +2815,19 @@
         <v>983498</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>972166</v>
+        <v>973460</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>989298</v>
+        <v>989779</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9870528924063411</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9756806073468082</v>
+        <v>0.9769791351198448</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9928740173286441</v>
+        <v>0.9933569674991545</v>
       </c>
     </row>
     <row r="15">
@@ -2919,19 +2919,19 @@
         <v>15527</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9070</v>
+        <v>8754</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24882</v>
+        <v>25165</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004610992530495166</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002693595302404971</v>
+        <v>0.002599583481739219</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.007389406406570566</v>
+        <v>0.007473275811398798</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>51</v>
@@ -2940,19 +2940,19 @@
         <v>59131</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45471</v>
+        <v>45190</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>76082</v>
+        <v>77228</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01676620114611526</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01289309401138102</v>
+        <v>0.01281326293150858</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02157251761300856</v>
+        <v>0.02189757018943651</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>67</v>
@@ -2961,19 +2961,19 @@
         <v>74657</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>58290</v>
+        <v>57221</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>95484</v>
+        <v>94560</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01082921604472705</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00845505306552667</v>
+        <v>0.008300016700092498</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0138501574175457</v>
+        <v>0.0137161410136829</v>
       </c>
     </row>
     <row r="17">
@@ -2990,19 +2990,19 @@
         <v>3351755</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3342400</v>
+        <v>3342117</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3358212</v>
+        <v>3358528</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9953890074695049</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9926105935934296</v>
+        <v>0.9925267241886012</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.997306404697595</v>
+        <v>0.9974004165182608</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3271</v>
@@ -3011,19 +3011,19 @@
         <v>3467661</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3450710</v>
+        <v>3449564</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3481321</v>
+        <v>3481602</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9832337988538847</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.978427482386992</v>
+        <v>0.9781024298105636</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9871069059886191</v>
+        <v>0.9871867370684916</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6460</v>
@@ -3032,19 +3032,19 @@
         <v>6819418</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6798591</v>
+        <v>6799515</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6835785</v>
+        <v>6836854</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9891707839552729</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9861498425824543</v>
+        <v>0.986283858986317</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9915449469344731</v>
+        <v>0.9916999832999074</v>
       </c>
     </row>
     <row r="18">
